--- a/data/financial_statements/soci/PNW.xlsx
+++ b/data/financial_statements/soci/PNW.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1469871000</v>
+        <v>1470000000</v>
       </c>
       <c r="C2">
-        <v>1061669000</v>
+        <v>1062000000</v>
       </c>
       <c r="D2">
-        <v>783531000</v>
+        <v>784000000</v>
       </c>
       <c r="E2">
-        <v>798857100</v>
+        <v>799000000</v>
       </c>
       <c r="F2">
-        <v>1308254000</v>
+        <v>1308000000</v>
       </c>
       <c r="G2">
         <v>1000249000</v>
@@ -733,23 +844,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.1235</v>
+        <v>0.1239</v>
       </c>
       <c r="C3">
-        <v>0.0614</v>
+        <v>0.0617</v>
       </c>
       <c r="D3">
-        <v>0.125</v>
+        <v>0.1257</v>
       </c>
       <c r="E3">
-        <v>0.0781</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="F3">
-        <v>0.0428</v>
+        <v>0.0426</v>
       </c>
       <c r="G3">
         <v>0.076</v>
@@ -855,23 +966,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>556571000</v>
+        <v>1137000000</v>
       </c>
       <c r="C4">
-        <v>352187000</v>
+        <v>847000000</v>
       </c>
       <c r="D4">
-        <v>265269000</v>
+        <v>894000000</v>
       </c>
       <c r="E4">
-        <v>257037000</v>
+        <v>637000000</v>
       </c>
       <c r="F4">
-        <v>427452000</v>
+        <v>676000000</v>
       </c>
       <c r="G4">
         <v>269835000</v>
@@ -977,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>913300000</v>
+        <v>332000000</v>
       </c>
       <c r="C5">
-        <v>709481900</v>
+        <v>215000000</v>
       </c>
       <c r="D5">
-        <v>518262000</v>
+        <v>-110000000</v>
       </c>
       <c r="E5">
-        <v>541820100</v>
+        <v>162000000</v>
       </c>
       <c r="F5">
-        <v>880802000</v>
+        <v>633000000</v>
       </c>
       <c r="G5">
         <v>730414100</v>
@@ -1099,8 +1210,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>305138000</v>
@@ -1221,8 +1332,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>417573000</v>
@@ -1343,8 +1454,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>63000000</v>
@@ -1384,23 +1495,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>72185000</v>
+        <v>2000000</v>
       </c>
       <c r="C9">
-        <v>68103000</v>
+        <v>2000000</v>
       </c>
       <c r="D9">
-        <v>65389000</v>
+        <v>2000000</v>
       </c>
       <c r="E9">
-        <v>65532000</v>
+        <v>1000000</v>
       </c>
       <c r="F9">
-        <v>64067000</v>
+        <v>2000000</v>
       </c>
       <c r="G9">
         <v>62777000</v>
@@ -1506,23 +1617,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-34213000</v>
+        <v>-112000000</v>
       </c>
       <c r="C10">
-        <v>-27789000</v>
+        <v>-30000000</v>
       </c>
       <c r="D10">
-        <v>-29069000</v>
+        <v>-194000000</v>
       </c>
       <c r="E10">
-        <v>-22114000</v>
+        <v>82000000</v>
       </c>
       <c r="F10">
-        <v>-13406000</v>
+        <v>181000000</v>
       </c>
       <c r="G10">
         <v>-12390000</v>
@@ -1628,23 +1739,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>383360000</v>
+        <v>383000000</v>
       </c>
       <c r="C11">
-        <v>195306000</v>
+        <v>195000000</v>
       </c>
       <c r="D11">
-        <v>25423000</v>
+        <v>25000000</v>
       </c>
       <c r="E11">
-        <v>27903000</v>
+        <v>28000000</v>
       </c>
       <c r="F11">
-        <v>415967000</v>
+        <v>416000000</v>
       </c>
       <c r="G11">
         <v>265996000</v>
@@ -1750,23 +1861,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>52728000</v>
+        <v>53000000</v>
       </c>
       <c r="C12">
-        <v>26688000</v>
+        <v>27000000</v>
       </c>
       <c r="D12">
-        <v>4161000</v>
+        <v>4000000</v>
       </c>
       <c r="E12">
-        <v>-3987000</v>
+        <v>-4000000</v>
       </c>
       <c r="F12">
-        <v>71863000</v>
+        <v>72000000</v>
       </c>
       <c r="G12">
         <v>46560000</v>
@@ -1872,8 +1983,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>330632000</v>
@@ -1994,8 +2105,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2026,8 +2137,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>4306000</v>
@@ -2148,23 +2259,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>326326000</v>
+        <v>326000000</v>
       </c>
       <c r="C16">
-        <v>164312000</v>
+        <v>164000000</v>
       </c>
       <c r="D16">
-        <v>16956000</v>
+        <v>17000000</v>
       </c>
       <c r="E16">
-        <v>27584000</v>
+        <v>28000000</v>
       </c>
       <c r="F16">
-        <v>339798000</v>
+        <v>340000000</v>
       </c>
       <c r="G16">
         <v>215697000</v>
@@ -2270,8 +2381,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2.88</v>
@@ -2286,7 +2397,7 @@
         <v>0.24</v>
       </c>
       <c r="F17">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>1.91</v>
@@ -2392,8 +2503,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2.88</v>
@@ -2514,23 +2625,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>113211000</v>
+        <v>113000000</v>
       </c>
       <c r="C19">
-        <v>113172000</v>
+        <v>113000000</v>
       </c>
       <c r="D19">
-        <v>113102000</v>
+        <v>113000000</v>
       </c>
       <c r="E19">
-        <v>112910000</v>
+        <v>113000000</v>
       </c>
       <c r="F19">
-        <v>112923000</v>
+        <v>113000000</v>
       </c>
       <c r="G19">
         <v>112882000</v>
@@ -2636,23 +2747,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>113463000</v>
+        <v>113000000</v>
       </c>
       <c r="C20">
-        <v>113369000</v>
+        <v>113000000</v>
       </c>
       <c r="D20">
-        <v>113295000</v>
+        <v>113000000</v>
       </c>
       <c r="E20">
-        <v>113192000</v>
+        <v>113000000</v>
       </c>
       <c r="F20">
-        <v>113217000</v>
+        <v>113000000</v>
       </c>
       <c r="G20">
         <v>113223000</v>
@@ -2758,23 +2869,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.6213</v>
+        <v>0.2259</v>
       </c>
       <c r="C21">
-        <v>0.6683</v>
+        <v>0.2024</v>
       </c>
       <c r="D21">
-        <v>0.6614</v>
+        <v>-0.1403</v>
       </c>
       <c r="E21">
-        <v>0.6782</v>
+        <v>0.2028</v>
       </c>
       <c r="F21">
-        <v>0.6733</v>
+        <v>0.4839</v>
       </c>
       <c r="G21">
         <v>0.7302</v>
@@ -2880,8 +2991,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.2841</v>
@@ -2896,7 +3007,7 @@
         <v>0.0626</v>
       </c>
       <c r="F22">
-        <v>0.3282</v>
+        <v>0.3283</v>
       </c>
       <c r="G22">
         <v>0.2783</v>
@@ -3002,20 +3113,20 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.2608</v>
+        <v>0.2605</v>
       </c>
       <c r="C23">
-        <v>0.184</v>
+        <v>0.1836</v>
       </c>
       <c r="D23">
-        <v>0.0324</v>
+        <v>0.0319</v>
       </c>
       <c r="E23">
-        <v>0.0349</v>
+        <v>0.035</v>
       </c>
       <c r="F23">
         <v>0.318</v>
@@ -3124,23 +3235,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.222</v>
+        <v>0.2218</v>
       </c>
       <c r="C24">
-        <v>0.1548</v>
+        <v>0.1544</v>
       </c>
       <c r="D24">
-        <v>0.0216</v>
+        <v>0.0217</v>
       </c>
       <c r="E24">
-        <v>0.0345</v>
+        <v>0.035</v>
       </c>
       <c r="F24">
-        <v>0.2597</v>
+        <v>0.2599</v>
       </c>
       <c r="G24">
         <v>0.2156</v>
@@ -3246,23 +3357,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>700168900</v>
+        <v>487000000</v>
       </c>
       <c r="C25">
-        <v>481983000</v>
+        <v>362000000</v>
       </c>
       <c r="D25">
-        <v>297573000</v>
+        <v>34000000</v>
       </c>
       <c r="E25">
-        <v>256179000</v>
+        <v>290000000</v>
       </c>
       <c r="F25">
-        <v>625545000</v>
+        <v>759000000</v>
       </c>
       <c r="G25">
         <v>463905000</v>
@@ -3368,8 +3479,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>417573000</v>
@@ -3490,8 +3601,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>330632000</v>
@@ -3612,23 +3723,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>330632000</v>
+        <v>331000000</v>
       </c>
       <c r="C28">
-        <v>168618000</v>
+        <v>169000000</v>
       </c>
       <c r="D28">
-        <v>21262000</v>
+        <v>21000000</v>
       </c>
       <c r="E28">
-        <v>31890000</v>
+        <v>32000000</v>
       </c>
       <c r="F28">
-        <v>344104000</v>
+        <v>344000000</v>
       </c>
       <c r="G28">
         <v>219436000</v>
@@ -3734,8 +3845,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2.9205</v>
@@ -3856,8 +3967,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2.914</v>
@@ -3978,8 +4089,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2.9205</v>
@@ -4100,8 +4211,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>2.914</v>
@@ -4222,8 +4333,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>113463000</v>
@@ -4344,23 +4455,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>0.4763</v>
+        <v>0.3313</v>
       </c>
       <c r="C34">
-        <v>0.454</v>
+        <v>0.3409</v>
       </c>
       <c r="D34">
-        <v>0.3798</v>
+        <v>0.0434</v>
       </c>
       <c r="E34">
-        <v>0.3207</v>
+        <v>0.363</v>
       </c>
       <c r="F34">
-        <v>0.4782</v>
+        <v>0.5803</v>
       </c>
       <c r="G34">
         <v>0.4638</v>
@@ -4466,23 +4577,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0.3018</v>
       </c>
       <c r="C35">
-        <v>0.2333</v>
+        <v>0.2332</v>
       </c>
       <c r="D35">
-        <v>0.4347</v>
+        <v>0.4344</v>
       </c>
       <c r="E35">
         <v>0.2497</v>
       </c>
       <c r="F35">
-        <v>0.2661</v>
+        <v>0.2662</v>
       </c>
       <c r="G35">
         <v>0.1103</v>
